--- a/biology/Zoologie/Baleine_à_bec_de_True/Baleine_à_bec_de_True.xlsx
+++ b/biology/Zoologie/Baleine_à_bec_de_True/Baleine_à_bec_de_True.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Baleine_%C3%A0_bec_de_True</t>
+          <t>Baleine_à_bec_de_True</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mesoplodon mirus
-La baleine à bec de True (Mesoplodon mirus) est une espèce de cétacés de la famille des Ziphiidae. Son nom est un hommage au mammalogiste américain Frederick William True (1858-1914), spécialiste des cétacés et descripteur de l'espèce en 1913. L'épithète spécifique mirus signifie en latin étonnant, merveilleux[1].
+La baleine à bec de True (Mesoplodon mirus) est une espèce de cétacés de la famille des Ziphiidae. Son nom est un hommage au mammalogiste américain Frederick William True (1858-1914), spécialiste des cétacés et descripteur de l'espèce en 1913. L'épithète spécifique mirus signifie en latin étonnant, merveilleux.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Baleine_%C3%A0_bec_de_True</t>
+          <t>Baleine_à_bec_de_True</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Description et comportement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La baleine à bec de True, comme les autres baleines à bec, n'est pas à proprement parler une baleine mais un cétacé à dents.
 Elle atteint  environ 5,3 m pour un poids de 1 400 kg pour les femelles et de 1 010 kg pour les mâles. Les petits mesurent environ 2,2 m à la naissance.
-Elle est très discrète, et rarement observée : hormis par les quelques carcasses échouées sur les plages, on connait très peu de choses sur cette espèce[2].
+Elle est très discrète, et rarement observée : hormis par les quelques carcasses échouées sur les plages, on connait très peu de choses sur cette espèce.
 Elle ressemble à un dauphin. Elle a été vue vivant en petits groupes, et on suppose qu'elle se nourrit principalement de calmars.
 </t>
         </is>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Baleine_%C3%A0_bec_de_True</t>
+          <t>Baleine_à_bec_de_True</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle vit dans les eaux du nord de l'Atlantique ainsi que du sud de l'Afrique jusqu'en Australie[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle vit dans les eaux du nord de l'Atlantique ainsi que du sud de l'Afrique jusqu'en Australie.
 </t>
         </is>
       </c>
